--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\témalab_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C4ADFB-E2E7-4000-8365-B3747DABD489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646C104-330C-4954-BAC5-6669581487F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>fekete</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Juli</t>
+  </si>
+  <si>
+    <t>kereset</t>
+  </si>
+  <si>
+    <t>ház</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -387,8 +393,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -398,8 +410,14 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -409,8 +427,14 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -420,8 +444,14 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -431,8 +461,14 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -442,8 +478,14 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -453,8 +495,14 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -464,8 +512,14 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>240</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -475,8 +529,14 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -486,8 +546,14 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -497,8 +563,14 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -508,8 +580,14 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -519,8 +597,14 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -530,8 +614,14 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>170</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -541,8 +631,14 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -550,6 +646,12 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
     </row>

--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milan\Documents\témalab_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C646C104-330C-4954-BAC5-6669581487F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A1F79A-9AFC-4CD3-8CE0-31AF58E2109C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="900" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1995" windowWidth="13260" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>fekete</t>
   </si>
@@ -58,6 +66,9 @@
   </si>
   <si>
     <t>ház</t>
+  </si>
+  <si>
+    <t>esély</t>
   </si>
 </sst>
 </file>
@@ -375,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -399,8 +410,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,8 +430,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -433,8 +450,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -450,8 +470,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,8 +490,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -484,8 +510,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -501,8 +530,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -518,8 +550,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -535,8 +570,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -552,8 +590,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -569,8 +610,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -586,8 +630,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -603,8 +650,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -620,8 +670,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -637,8 +690,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -653,6 +709,9 @@
       </c>
       <c r="E16">
         <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
